--- a/public/templates/suggest-template.xlsx
+++ b/public/templates/suggest-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D曹\宜蓁\績效指標相關內容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C1E4DA-48DD-4F48-9699-F297B33EE429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358867BD-8CC2-412F-9EF5-E445304829D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,17 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工廠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工廠ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -123,10 +115,6 @@
   </si>
   <si>
     <t>年月日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠榮林園廠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -362,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -401,19 +389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -430,13 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,9 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,14 +709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
@@ -766,139 +736,124 @@
     <col min="18" max="18" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45662</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>138</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>45662</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2">
+        <v>112</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3">
-        <v>112</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 I1:I2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 G1:G2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
       <formula1>"111-113年林園總體檢, 114-116年林園自主新循環管理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 C2" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
       <formula1>"PSM, EP, FR, ECO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{74D3B59A-83A5-4A02-9823-CB4CB538AEB1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 B2" xr:uid="{74D3B59A-83A5-4A02-9823-CB4CB538AEB1}">
       <formula1>"書面審查會議, 實地進廠查驗, 領先指標輔導, 工安管理訪查會議, 事故改善暨平行展開管理追蹤檢討會議"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576 J2:J1048576" xr:uid="{020D6278-06C5-4E1D-917D-09CF047CFCE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576 L2 N3:N1048576 H2 J3:J1048576 O2" xr:uid="{020D6278-06C5-4E1D-917D-09CF047CFCE7}">
       <formula1>"是, 否, 不參採, 詳備住"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{91FB4B1C-23DC-4900-A791-E60B07C2F43E}">
-      <formula1>"是, 否, 不參採, 詳備住"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{30E8D477-E070-4834-A611-77CB8757085F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576 F2" xr:uid="{30E8D477-E070-4834-A611-77CB8757085F}">
       <formula1>"改善建議, 精進建議, 可資借鏡"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/templates/suggest-template.xlsx
+++ b/public/templates/suggest-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D曹\宜蓁\績效指標相關內容\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\各公司匯入\六輕建議\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358867BD-8CC2-412F-9EF5-E445304829D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2D1ACA-411F-43F0-8946-CA172892F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,10 +720,11 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.140625" customWidth="1"/>
@@ -841,19 +842,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 G1:G2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
       <formula1>"111-113年林園總體檢, 114-116年林園自主新循環管理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 C2" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
       <formula1>"PSM, EP, FR, ECO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 B2" xr:uid="{74D3B59A-83A5-4A02-9823-CB4CB538AEB1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{74D3B59A-83A5-4A02-9823-CB4CB538AEB1}">
       <formula1>"書面審查會議, 實地進廠查驗, 領先指標輔導, 工安管理訪查會議, 事故改善暨平行展開管理追蹤檢討會議"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576 L2 N3:N1048576 H2 J3:J1048576 O2" xr:uid="{020D6278-06C5-4E1D-917D-09CF047CFCE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 L2" xr:uid="{020D6278-06C5-4E1D-917D-09CF047CFCE7}">
       <formula1>"是, 否, 不參採, 詳備住"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576 F2" xr:uid="{30E8D477-E070-4834-A611-77CB8757085F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{30E8D477-E070-4834-A611-77CB8757085F}">
       <formula1>"改善建議, 精進建議, 可資借鏡"</formula1>
     </dataValidation>
   </dataValidations>
